--- a/hardware/TELEXi/board/TELEXi-BOM.xlsx
+++ b/hardware/TELEXi/board/TELEXi-BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14100" yWindow="2560" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="1120" yWindow="2560" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TELEXi" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Telex_I" localSheetId="0">TELEXi!$A$1:$H$22</definedName>
+    <definedName name="Telex_I_1" localSheetId="0">TELEXi!$A$1:$I$22</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>Qty</t>
   </si>
@@ -70,12 +70,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Parts</t>
-  </si>
-  <si>
-    <t>MF</t>
-  </si>
-  <si>
     <t>OC_MOUSER</t>
   </si>
   <si>
@@ -106,9 +100,6 @@
     <t>1x14 Header</t>
   </si>
   <si>
-    <t>T-LEFT-F, T-LEFT-M, T-RIGHT-F, T-RIGHT-M</t>
-  </si>
-  <si>
     <t>MO3PTH</t>
   </si>
   <si>
@@ -121,9 +112,6 @@
     <t>1x3 Header</t>
   </si>
   <si>
-    <t>II1, II2</t>
-  </si>
-  <si>
     <t>M06SILK_FEMALE_PTH</t>
   </si>
   <si>
@@ -133,9 +121,6 @@
     <t>1x6 Header</t>
   </si>
   <si>
-    <t>S-LEFT-F, S-LEFT-M, S-RIGHT-F, S-RIGHT-M</t>
-  </si>
-  <si>
     <t>MP3x2POGO_PINS</t>
   </si>
   <si>
@@ -148,9 +133,6 @@
     <t>2x3 Header</t>
   </si>
   <si>
-    <t>ADDRESS</t>
-  </si>
-  <si>
     <t>MCP1703CB</t>
   </si>
   <si>
@@ -178,9 +160,6 @@
     <t>5x2 Europower</t>
   </si>
   <si>
-    <t>POWER</t>
-  </si>
-  <si>
     <t>ALPHA-9MMF2A</t>
   </si>
   <si>
@@ -190,9 +169,6 @@
     <t>B10K Pot</t>
   </si>
   <si>
-    <t>POT1, POT2, POT3, POT4</t>
-  </si>
-  <si>
     <t>.01u</t>
   </si>
   <si>
@@ -214,27 +190,18 @@
     <t>4,700p</t>
   </si>
   <si>
-    <t>C104, C106, C107, C108</t>
-  </si>
-  <si>
     <t>81-GRM1885C1H472JA1D</t>
   </si>
   <si>
     <t>.1u</t>
   </si>
   <si>
-    <t>C1, C2, C100, C101, C102, C103, C105, C112, C113, C114</t>
-  </si>
-  <si>
     <t>581-06033C104JAT2A</t>
   </si>
   <si>
     <t>1u</t>
   </si>
   <si>
-    <t>C4, C111, C115, C116</t>
-  </si>
-  <si>
     <t>581-06033C105KAT2A</t>
   </si>
   <si>
@@ -244,9 +211,6 @@
     <t>CAP1206</t>
   </si>
   <si>
-    <t>C109, C110</t>
-  </si>
-  <si>
     <t>81-GRM31CR71E106KA12</t>
   </si>
   <si>
@@ -259,12 +223,6 @@
     <t>Fuses</t>
   </si>
   <si>
-    <t>F100, F101</t>
-  </si>
-  <si>
-    <t>Littelfuse</t>
-  </si>
-  <si>
     <t>576-0805L010</t>
   </si>
   <si>
@@ -277,9 +235,6 @@
     <t>Kobiconn 3.5mm</t>
   </si>
   <si>
-    <t>CV1, CV2, CV3, CV4</t>
-  </si>
-  <si>
     <t>MCP6004</t>
   </si>
   <si>
@@ -295,9 +250,6 @@
     <t>IC101</t>
   </si>
   <si>
-    <t>Microshop</t>
-  </si>
-  <si>
     <t>579-MCP6004T-I/SL</t>
   </si>
   <si>
@@ -313,9 +265,6 @@
     <t>Resistor .1%</t>
   </si>
   <si>
-    <t>R100, R101, R102, R103, R107, R109, R111, R112</t>
-  </si>
-  <si>
     <t>667-ERA-3AEB204V</t>
   </si>
   <si>
@@ -343,9 +292,6 @@
     <t>D100</t>
   </si>
   <si>
-    <t>NXP</t>
-  </si>
-  <si>
     <t>771-BAS70-04-T/R</t>
   </si>
   <si>
@@ -355,7 +301,46 @@
     <t>Teensy 3.2</t>
   </si>
   <si>
-    <t>U$1</t>
+    <t>TopBottom</t>
+  </si>
+  <si>
+    <t>BottomTop</t>
+  </si>
+  <si>
+    <t>BottomBottom</t>
+  </si>
+  <si>
+    <t>C104,C106,C107,C108</t>
+  </si>
+  <si>
+    <t>C100, C101, C102, C103</t>
+  </si>
+  <si>
+    <t>C1,C2</t>
+  </si>
+  <si>
+    <t>C105,C112,C113,C114</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C111,C115,C116</t>
+  </si>
+  <si>
+    <t>C109,C110</t>
+  </si>
+  <si>
+    <t>F100,F101</t>
+  </si>
+  <si>
+    <t>R100,R101,R102,R103</t>
+  </si>
+  <si>
+    <t>R107,R109,R111,R112</t>
+  </si>
+  <si>
+    <t>1206-CAP</t>
   </si>
 </sst>
 </file>
@@ -419,7 +404,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
     <dxf>
       <font>
         <strike val="0"/>
@@ -434,24 +419,51 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
+        <color theme="1"/>
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
+        <color theme="1"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
@@ -552,23 +564,24 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Telex-I" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Telex-I_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:H22" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:I22"/>
   <sortState ref="A2:J22">
     <sortCondition ref="E1:E22"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Qty" dataDxfId="7"/>
-    <tableColumn id="2" name="Value" dataDxfId="6"/>
-    <tableColumn id="3" name="Device" dataDxfId="5"/>
-    <tableColumn id="4" name="Package" dataDxfId="4"/>
-    <tableColumn id="5" name="Description" dataDxfId="3"/>
-    <tableColumn id="6" name="Parts" dataDxfId="2"/>
-    <tableColumn id="8" name="MF" dataDxfId="1"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="Qty" dataDxfId="8"/>
+    <tableColumn id="2" name="Value" dataDxfId="7"/>
+    <tableColumn id="3" name="Device" dataDxfId="6"/>
+    <tableColumn id="4" name="Package" dataDxfId="5"/>
+    <tableColumn id="5" name="Description" dataDxfId="4"/>
+    <tableColumn id="12" name="TopBottom" dataDxfId="3"/>
+    <tableColumn id="14" name="BottomTop" dataDxfId="2"/>
+    <tableColumn id="9" name="BottomBottom" dataDxfId="1"/>
     <tableColumn id="10" name="OC_MOUSER" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -838,10 +851,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,13 +864,14 @@
     <col min="3" max="3" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="46.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -874,411 +888,399 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="I2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>4</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1206</v>
+        <v>51</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>63</v>
+        <v>41</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>4</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>8</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>4</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -1286,65 +1288,59 @@
         <v>470</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/TELEXi/board/TELEXi-BOM.xlsx
+++ b/hardware/TELEXi/board/TELEXi-BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1120" yWindow="2560" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="16680" yWindow="1220" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TELEXi" sheetId="1" r:id="rId1"/>
@@ -280,9 +280,6 @@
     <t>R104</t>
   </si>
   <si>
-    <t>71-TNPW0603470RBEEA</t>
-  </si>
-  <si>
     <t>BAS70-04</t>
   </si>
   <si>
@@ -341,6 +338,9 @@
   </si>
   <si>
     <t>1206-CAP</t>
+  </si>
+  <si>
+    <t>660-RN731JTTD4700B25</t>
   </si>
 </sst>
 </file>
@@ -854,7 +854,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,13 +888,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -1084,7 +1084,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="4" t="s">
         <v>45</v>
@@ -1107,13 +1107,13 @@
         <v>41</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>47</v>
@@ -1136,10 +1136,10 @@
         <v>41</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>49</v>
@@ -1156,13 +1156,13 @@
         <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>52</v>
@@ -1185,7 +1185,7 @@
         <v>55</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>56</v>
@@ -1248,10 +1248,10 @@
         <v>69</v>
       </c>
       <c r="F18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>94</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>70</v>
@@ -1300,7 +1300,7 @@
         <v>74</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1308,22 +1308,22 @@
         <v>1</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="I21" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1331,16 +1331,16 @@
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/hardware/TELEXi/board/TELEXi-BOM.xlsx
+++ b/hardware/TELEXi/board/TELEXi-BOM.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28016"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10210"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="16680" yWindow="1220" windowWidth="28160" windowHeight="16880" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="1120" windowWidth="28160" windowHeight="16880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TELEXi" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="Telex_I_1" localSheetId="0">TELEXi!$A$1:$I$22</definedName>
+    <definedName name="Telex_I_1" localSheetId="0">TELEXi!$A$1:$I$25</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,8 +30,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Telex-I.csv" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="Telex-I.csv" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:brendon:Documents:eagle:TELEX:Telex-I.csv" comma="1" semicolon="1">
       <textFields count="12">
         <textField/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="124">
   <si>
     <t>Qty</t>
   </si>
@@ -91,48 +91,6 @@
     <t>595-LM4040C10IDBZR</t>
   </si>
   <si>
-    <t>M14</t>
-  </si>
-  <si>
-    <t>1X14</t>
-  </si>
-  <si>
-    <t>1x14 Header</t>
-  </si>
-  <si>
-    <t>MO3PTH</t>
-  </si>
-  <si>
-    <t>M03PTH</t>
-  </si>
-  <si>
-    <t>1X03</t>
-  </si>
-  <si>
-    <t>1x3 Header</t>
-  </si>
-  <si>
-    <t>M06SILK_FEMALE_PTH</t>
-  </si>
-  <si>
-    <t>1X06</t>
-  </si>
-  <si>
-    <t>1x6 Header</t>
-  </si>
-  <si>
-    <t>MP3x2POGO_PINS</t>
-  </si>
-  <si>
-    <t>M03X2POGO_PINS</t>
-  </si>
-  <si>
-    <t>2X3_POGO</t>
-  </si>
-  <si>
-    <t>2x3 Header</t>
-  </si>
-  <si>
     <t>MCP1703CB</t>
   </si>
   <si>
@@ -148,18 +106,6 @@
     <t>579-MCP1703AT5002ECB</t>
   </si>
   <si>
-    <t>10-Pin</t>
-  </si>
-  <si>
-    <t>POWER_SIMPLE10</t>
-  </si>
-  <si>
-    <t>POWER_10</t>
-  </si>
-  <si>
-    <t>5x2 Europower</t>
-  </si>
-  <si>
     <t>ALPHA-9MMF2A</t>
   </si>
   <si>
@@ -178,15 +124,9 @@
     <t>0603-CAP</t>
   </si>
   <si>
-    <t>Capacitor</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
-    <t>81-GRM39X103K50D</t>
-  </si>
-  <si>
     <t>4,700p</t>
   </si>
   <si>
@@ -232,9 +172,6 @@
     <t>WQP_PJ_301M</t>
   </si>
   <si>
-    <t>Kobiconn 3.5mm</t>
-  </si>
-  <si>
     <t>MCP6004</t>
   </si>
   <si>
@@ -292,9 +229,6 @@
     <t>771-BAS70-04-T/R</t>
   </si>
   <si>
-    <t>TEENSY3.1_ALL</t>
-  </si>
-  <si>
     <t>Teensy 3.2</t>
   </si>
   <si>
@@ -341,13 +275,163 @@
   </si>
   <si>
     <t>660-RN731JTTD4700B25</t>
+  </si>
+  <si>
+    <t>80-C0603C103K5REAUTO</t>
+  </si>
+  <si>
+    <t>TEENSY 3.2</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/3-5mm-jacks/</t>
+  </si>
+  <si>
+    <t>1x14 MALE</t>
+  </si>
+  <si>
+    <t>1x14 FEMALE</t>
+  </si>
+  <si>
+    <t>1x14M</t>
+  </si>
+  <si>
+    <t>1x14F</t>
+  </si>
+  <si>
+    <t>1x03 MALE</t>
+  </si>
+  <si>
+    <t>1x03M</t>
+  </si>
+  <si>
+    <t>1X14M</t>
+  </si>
+  <si>
+    <t>1X14F</t>
+  </si>
+  <si>
+    <t>1X03M</t>
+  </si>
+  <si>
+    <t>1X06M</t>
+  </si>
+  <si>
+    <t>1X06F</t>
+  </si>
+  <si>
+    <t>1x06 FEMALE</t>
+  </si>
+  <si>
+    <t>1x06 MALE</t>
+  </si>
+  <si>
+    <t>1x06M</t>
+  </si>
+  <si>
+    <t>1x06F</t>
+  </si>
+  <si>
+    <t>2x03M</t>
+  </si>
+  <si>
+    <t>2x03 MALE</t>
+  </si>
+  <si>
+    <t>2x3 Header, Male</t>
+  </si>
+  <si>
+    <t>1x6 Header, Female</t>
+  </si>
+  <si>
+    <t>1x6 Header, Male</t>
+  </si>
+  <si>
+    <t>1x3 Header, Male</t>
+  </si>
+  <si>
+    <t>1x14 Header, Female</t>
+  </si>
+  <si>
+    <t>1x14 Header, Male</t>
+  </si>
+  <si>
+    <t>2x05 MALE</t>
+  </si>
+  <si>
+    <t>2x05M</t>
+  </si>
+  <si>
+    <t>5x2 Europower, Male</t>
+  </si>
+  <si>
+    <t>Board Interconnects; Safe to Substutite Machined Headers</t>
+  </si>
+  <si>
+    <t>Teensy Interconnects; Safe to Substitute Machined Headers</t>
+  </si>
+  <si>
+    <t>Jumpers; Standard Headers</t>
+  </si>
+  <si>
+    <t>Europower Connector</t>
+  </si>
+  <si>
+    <t>i2c Connectors; Standard Headers</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/alpha-9mm-pots-vertical-t18/</t>
+  </si>
+  <si>
+    <t>Selco Knob</t>
+  </si>
+  <si>
+    <t>Small Black Skirted</t>
+  </si>
+  <si>
+    <t>https://www.thonk.co.uk/shop/intellijel-style-knobs/</t>
+  </si>
+  <si>
+    <t>Knobs &amp; Caps</t>
+  </si>
+  <si>
+    <t>KNOB</t>
+  </si>
+  <si>
+    <t>Small Black Skirted T18 Knob and Small Grey Caps</t>
+  </si>
+  <si>
+    <t>https://store.oshpark.com/products/teensy-3-1</t>
+  </si>
+  <si>
+    <t>OSH Park has the best price on Teensy 3.2. Plus, they are purple which makes the TELEX sound better.</t>
+  </si>
+  <si>
+    <t>Thonkiconn 3.5mm</t>
+  </si>
+  <si>
+    <t>"Thonkiconn"; don't forget to get the nut style of your choice. Erthenvar carries these in the USA.</t>
+  </si>
+  <si>
+    <t>B10K Linear Potentiometer; I use the T18 Shaft. Synthrotek also carries these in the USA</t>
+  </si>
+  <si>
+    <t>Capacitor; &gt;=16V; 10%</t>
+  </si>
+  <si>
+    <t>Capacitor; &gt;=16V; 5%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -358,16 +442,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Avenir Next Regular"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Avenir Next Regular"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Avenir Next Regular"/>
     </font>
   </fonts>
@@ -394,17 +468,41 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -416,6 +514,7 @@
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -433,6 +532,21 @@
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -450,6 +564,7 @@
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -467,6 +582,25 @@
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Avenir Next Regular"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -479,6 +613,7 @@
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -491,6 +626,7 @@
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -503,6 +639,7 @@
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -516,6 +653,7 @@
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -528,18 +666,7 @@
         <name val="Avenir Next Regular"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <name val="Avenir Next Regular"/>
-        <scheme val="none"/>
-      </font>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -559,30 +686,35 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Telex-I_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="Telex-I_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:I22" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:I22"/>
-  <sortState ref="A2:J22">
-    <sortCondition ref="E1:E22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:K25" totalsRowShown="0" headerRowDxfId="12" dataDxfId="1">
+  <autoFilter ref="A1:K25" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="A2:K25">
+    <sortCondition ref="C1:C25"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" name="Qty" dataDxfId="8"/>
-    <tableColumn id="2" name="Value" dataDxfId="7"/>
-    <tableColumn id="3" name="Device" dataDxfId="6"/>
-    <tableColumn id="4" name="Package" dataDxfId="5"/>
-    <tableColumn id="5" name="Description" dataDxfId="4"/>
-    <tableColumn id="12" name="TopBottom" dataDxfId="3"/>
-    <tableColumn id="14" name="BottomTop" dataDxfId="2"/>
-    <tableColumn id="9" name="BottomBottom" dataDxfId="1"/>
-    <tableColumn id="10" name="OC_MOUSER" dataDxfId="0"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Qty" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Value" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Device" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Package" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Description" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="TopBottom" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="BottomTop" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BottomBottom" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="OC_MOUSER" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{144FB1DF-75CB-5F4E-B175-F62E4F44C93C}" name="URL" dataDxfId="0"/>
+    <tableColumn id="7" xr3:uid="{8F126419-53CD-A446-895E-EF9FBCFEEA6E}" name="Notes" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -850,28 +982,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="10" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -888,463 +1022,669 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="J1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="30">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="30">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="30">
+      <c r="A6" s="2">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="30">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="45">
+      <c r="A10" s="2">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30">
+      <c r="A11" s="2">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
+        <v>4</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
+        <v>4</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
+        <v>2</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+    </row>
+    <row r="18" spans="1:11" ht="45">
+      <c r="A18" s="2">
+        <v>4</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I19" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2">
+        <v>8</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
         <v>4</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+      <c r="B22" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2">
         <v>1</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+      <c r="B23" s="3">
+        <v>470</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+    </row>
+    <row r="24" spans="1:11" ht="60">
+      <c r="A24" s="2">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+      <c r="B24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>4</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>2</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>2</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>4</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>4</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2">
-        <v>470</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
